--- a/Interface/datas/excel_data.xlsx
+++ b/Interface/datas/excel_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317FA69-3F42-47D2-932C-83ABBE7E0FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1695" yWindow="1185" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,15 +74,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username
-password</t>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,25 +421,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="3" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,25 +450,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,23 +481,26 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
